--- a/slides/data/raw/faecal-sludge-analysis.xlsx
+++ b/slides/data/raw/faecal-sludge-analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lschoebitz/Documents/gitrepos/gh-org-ds4owd/md-05-exercises/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lschoebitz/Documents/gitrepos/gh-org-ds4owd-001/website/slides/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D3B0EB-11AD-6140-9249-397002576E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5E5EA-6E9D-6745-9DAA-DE61CD48EA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="1200" windowWidth="23700" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10120" yWindow="6720" windowWidth="16740" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
